--- a/sci_L2.xlsx
+++ b/sci_L2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31780" yWindow="11920" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="10740" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>The mission shall demonstrate operation of a visible nulling coronagraph in space</t>
   </si>
   <si>
-    <t>Nulling Coronagraph</t>
-  </si>
-  <si>
     <t>The mission shall observe the inner Epsilon Eridani system from  for sufficient time to measure a 2*10^(-4) L_star debris disk at 3AU. See Backman et al 2009, http://adsabs.harvard.edu/abs/2009ApJ...690.1522B</t>
   </si>
   <si>
@@ -75,13 +72,16 @@
     <t>SCI-01</t>
   </si>
   <si>
-    <t>Mission-01</t>
-  </si>
-  <si>
     <t>short name</t>
   </si>
   <si>
     <t>Mission-02</t>
+  </si>
+  <si>
+    <t>Mission-01,Mission-3</t>
+  </si>
+  <si>
+    <t>Nulling Coronagraph in Space</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="42">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -727,32 +727,32 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="98">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -761,10 +761,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
